--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE65232-238B-41BD-A775-80255FC00599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E21F7AE-E477-4EDA-9828-2DB9DDADFFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -137,35 +137,10 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -305,18 +280,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>an aparitie is number</t>
-  </si>
-  <si>
-    <t>an aparitie not number</t>
-  </si>
-  <si>
-    <t>an aparitie &gt; 1900</t>
-  </si>
-  <si>
-    <t>an aparitie not &gt; 1900</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -513,9 +476,6 @@
     <t>nr minim de bucati&lt;=nr maxim de bucati</t>
   </si>
   <si>
-    <t>02 pret=0.1</t>
-  </si>
-  <si>
     <t>03. nr minim de bucati=nr maxim de bucati=10</t>
   </si>
   <si>
@@ -546,17 +506,29 @@
     <t>TC2_BVA</t>
   </si>
   <si>
-    <t>returning more than one error messages</t>
-  </si>
-  <si>
-    <t>instead of equals verify that it contains the specified error message</t>
+    <t>void addInhousePart(String name, double price, int inStock, int min, int  max, int partDynamicValue)</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>02 pret=0.01</t>
+  </si>
+  <si>
+    <t>05. nr minim de bucati=9 nr maxim de bucati=10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +699,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1174,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1261,6 +1239,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1276,6 +1258,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,26 +1313,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,124 +1345,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,7 +1749,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,12 +1762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
       <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
@@ -1796,11 +1775,11 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -1883,8 +1862,8 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="107" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1897,27 +1876,27 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="34" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1934,7 +1913,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1951,21 +1930,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
-      <c r="B24" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="B24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
@@ -1988,8 +1967,8 @@
   </sheetPr>
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,123 +1990,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="G5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="B5" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="H6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="59"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>77</v>
+      <c r="C7" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="100">
+        <v>73</v>
+      </c>
+      <c r="G8" s="40">
         <v>1</v>
       </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>83</v>
+      <c r="H8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="J8" s="22">
         <v>5</v>
@@ -2141,30 +2120,30 @@
       <c r="M8" s="22">
         <v>10</v>
       </c>
-      <c r="N8" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="72"/>
+      <c r="N8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>80</v>
+      <c r="C9" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="100">
+      <c r="G9" s="40">
         <v>2</v>
       </c>
-      <c r="H9" s="22">
-        <v>2</v>
+      <c r="H9" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J9" s="22">
         <v>5</v>
@@ -2178,28 +2157,28 @@
       <c r="M9" s="22">
         <v>10</v>
       </c>
-      <c r="N9" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="72"/>
+      <c r="N9" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="100">
+        <v>75</v>
+      </c>
+      <c r="G10" s="40">
         <v>3</v>
       </c>
-      <c r="H10" s="22">
-        <v>3</v>
+      <c r="H10" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J10" s="22">
         <v>5</v>
@@ -2213,28 +2192,26 @@
       <c r="M10" s="22">
         <v>15</v>
       </c>
-      <c r="N10" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="72"/>
+      <c r="N10" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="G11" s="13">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>4</v>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J11" s="22">
         <v>5</v>
@@ -2248,48 +2225,42 @@
       <c r="M11" s="22">
         <v>4</v>
       </c>
-      <c r="N11" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="72"/>
+      <c r="N11" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>33</v>
+      <c r="C15" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2298,7 +2269,7 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
@@ -2306,8 +2277,8 @@
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>33</v>
+      <c r="C17" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2316,7 +2287,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
@@ -2324,8 +2295,8 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>33</v>
+      <c r="C19" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2334,26 +2305,18 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2366,7 +2329,16 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2378,8 +2350,8 @@
   </sheetPr>
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,118 +2374,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="G5" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="69" t="s">
-        <v>31</v>
+      <c r="K6" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="46">
+      <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>87</v>
+      <c r="C7" s="72" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -2524,13 +2496,13 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L8" s="22">
         <v>5</v>
       </c>
       <c r="M8" s="22">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="N8" s="22">
         <v>4</v>
@@ -2538,14 +2510,14 @@
       <c r="O8" s="22">
         <v>10</v>
       </c>
-      <c r="P8" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="72"/>
+      <c r="P8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="2"/>
       <c r="G9" s="13">
         <v>2</v>
@@ -2556,7 +2528,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L9" s="22">
         <v>5</v>
@@ -2570,14 +2542,14 @@
       <c r="O9" s="22">
         <v>10</v>
       </c>
-      <c r="P9" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="72"/>
+      <c r="P9" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="2"/>
       <c r="G10" s="13">
         <v>3</v>
@@ -2588,7 +2560,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L10" s="22">
         <v>10</v>
@@ -2602,14 +2574,14 @@
       <c r="O10" s="22">
         <v>10</v>
       </c>
-      <c r="P10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="72"/>
+      <c r="P10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="2"/>
       <c r="G11" s="13">
         <v>4</v>
@@ -2620,7 +2592,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L11" s="22">
         <v>11</v>
@@ -2634,76 +2606,87 @@
       <c r="O11" s="22">
         <v>10</v>
       </c>
-      <c r="P11" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="72"/>
+      <c r="P11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="46">
+      <c r="B13" s="56">
         <v>2</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>89</v>
+      <c r="C13" s="56" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="31"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="E27:F27"/>
@@ -2714,18 +2697,9 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2739,8 +2713,8 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,95 +2731,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="106"/>
+      <c r="B3" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="93"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="80"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>54</v>
+      <c r="C6" s="91" t="s">
+        <v>48</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" s="22">
         <v>5</v>
@@ -2860,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2871,15 +2845,15 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7" s="22">
         <v>5</v>
@@ -2894,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -2905,15 +2879,15 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" s="22">
         <v>5</v>
@@ -2928,10 +2902,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -2939,15 +2913,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G9" s="22">
         <v>5</v>
@@ -2962,10 +2936,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -2973,21 +2947,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10" s="22">
         <v>5</v>
       </c>
       <c r="H10" s="22">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="22">
         <v>4</v>
@@ -2996,10 +2970,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3007,15 +2981,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" s="22">
         <v>5</v>
@@ -3030,10 +3004,10 @@
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3041,15 +3015,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G12" s="22">
         <v>10</v>
@@ -3064,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3075,15 +3049,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G13" s="22">
         <v>11</v>
@@ -3098,10 +3072,10 @@
         <v>10</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3121,7 +3095,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
@@ -3131,133 +3105,129 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="85"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="26" t="s">
+      <c r="F18" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="89" t="s">
+      <c r="G18" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="89" t="s">
+      <c r="H18" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="94"/>
-      <c r="J18" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" s="88" t="s">
-        <v>66</v>
+      <c r="I18" s="101"/>
+      <c r="J18" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="83" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20" s="25">
         <v>8</v>
       </c>
       <c r="D20" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="27">
-        <v>3</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="83">
-        <v>3</v>
-      </c>
-      <c r="I20" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="96">
+        <v>0</v>
+      </c>
+      <c r="I20" s="97"/>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="28">
         <v>0</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
@@ -3274,6 +3244,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="L18:L19"/>
@@ -3286,22 +3268,10 @@
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3310,6 +3280,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3453,22 +3438,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3484,21 +3471,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>